--- a/PPAP Master File 2025 (1).xlsx
+++ b/PPAP Master File 2025 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiray\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD804232-1DAC-48CA-A101-C383854EA669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D0D6C8-B162-4AE2-AB81-307BF8F64BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8FD47F59-1A62-435E-B308-072C3B0AEB4E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8FD47F59-1A62-435E-B308-072C3B0AEB4E}"/>
   </bookViews>
   <sheets>
     <sheet name="PPAPs 2025" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="486">
   <si>
     <t>CUS NO.</t>
   </si>
@@ -2117,6 +2117,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2129,25 +2144,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2164,7 +2164,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -2462,11 +2462,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758B90B7-AB1A-4E5B-A081-F96148B648F1}">
   <dimension ref="A1:AF157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="55" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AD84" sqref="AD84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="0.36328125" customWidth="1"/>
     <col min="2" max="2" width="8.984375E-2" customWidth="1"/>
@@ -2490,14 +2490,14 @@
     <col min="20" max="20" width="5.08984375" style="1" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="4.81640625" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="5.08984375" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="11.08984375" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="6.6328125" style="1" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.1796875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.1796875" style="85" customWidth="1"/>
-    <col min="29" max="29" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.1796875" style="85" customWidth="1"/>
+    <col min="29" max="29" width="10.08984375" customWidth="1"/>
+    <col min="30" max="30" width="11.453125" customWidth="1"/>
     <col min="32" max="32" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="6.26953125" bestFit="1" customWidth="1"/>
@@ -2520,86 +2520,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="121" t="s">
+      <c r="G1" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="121" t="s">
+      <c r="H1" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="121" t="s">
+      <c r="I1" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="121" t="s">
+      <c r="K1" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="121" t="s">
+      <c r="L1" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="121" t="s">
+      <c r="M1" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="121" t="s">
+      <c r="N1" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="117" t="s">
+      <c r="O1" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117">
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124">
         <v>2023</v>
       </c>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117">
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124">
         <v>2024</v>
       </c>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117">
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="124">
         <v>2025</v>
       </c>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="118"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="125"/>
       <c r="AB1" s="83"/>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
+    <row r="2" spans="1:32" s="2" customFormat="1" ht="102" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
       <c r="O2" s="61" t="s">
         <v>15</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="AC3" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="125"/>
+      <c r="AD3" s="117"/>
     </row>
     <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
@@ -2780,7 +2780,7 @@
         <v>45783</v>
       </c>
       <c r="AB4" s="75"/>
-      <c r="AD4" s="125"/>
+      <c r="AD4" s="117"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
@@ -2865,7 +2865,7 @@
         <v>45721</v>
       </c>
       <c r="AB5" s="75"/>
-      <c r="AD5" s="125"/>
+      <c r="AD5" s="117"/>
     </row>
     <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
@@ -2924,7 +2924,7 @@
       <c r="Z6" s="32"/>
       <c r="AA6" s="33"/>
       <c r="AB6" s="68"/>
-      <c r="AD6" s="125"/>
+      <c r="AD6" s="117"/>
     </row>
     <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="AA7" s="34"/>
       <c r="AB7" s="77"/>
-      <c r="AD7" s="125"/>
+      <c r="AD7" s="117"/>
     </row>
     <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
@@ -3081,7 +3081,7 @@
       <c r="AC8" t="s">
         <v>60</v>
       </c>
-      <c r="AD8" s="125"/>
+      <c r="AD8" s="117"/>
     </row>
     <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
@@ -3168,7 +3168,7 @@
         <v>45840</v>
       </c>
       <c r="AB9" s="76"/>
-      <c r="AD9" s="125"/>
+      <c r="AD9" s="117"/>
     </row>
     <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
@@ -3229,7 +3229,7 @@
       <c r="Z10" s="27"/>
       <c r="AA10" s="33"/>
       <c r="AB10" s="76"/>
-      <c r="AD10" s="125"/>
+      <c r="AD10" s="117"/>
     </row>
     <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
@@ -3293,7 +3293,7 @@
       <c r="AC11" t="s">
         <v>78</v>
       </c>
-      <c r="AD11" s="125"/>
+      <c r="AD11" s="117"/>
     </row>
     <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="48" t="s">
@@ -3378,7 +3378,7 @@
         <v>45706</v>
       </c>
       <c r="AB12" s="75"/>
-      <c r="AD12" s="125"/>
+      <c r="AD12" s="117"/>
     </row>
     <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="48" t="s">
@@ -3466,7 +3466,7 @@
       <c r="AC13" t="s">
         <v>60</v>
       </c>
-      <c r="AD13" s="125"/>
+      <c r="AD13" s="117"/>
     </row>
     <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="AA14" s="33"/>
       <c r="AB14" s="76"/>
-      <c r="AD14" s="126" t="s">
+      <c r="AD14" s="118" t="s">
         <v>483</v>
       </c>
     </row>
@@ -3605,7 +3605,7 @@
       <c r="AA15" s="33"/>
       <c r="AB15" s="68"/>
       <c r="AC15" s="5"/>
-      <c r="AD15" s="127"/>
+      <c r="AD15" s="119"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
     </row>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="AA16" s="33"/>
       <c r="AB16" s="68"/>
-      <c r="AD16" s="125"/>
+      <c r="AD16" s="117"/>
     </row>
     <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
@@ -3729,7 +3729,7 @@
       <c r="AB17" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="AD17" s="125"/>
+      <c r="AD17" s="117"/>
     </row>
     <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="AA18" s="39"/>
       <c r="AB18" s="74"/>
-      <c r="AD18" s="125"/>
+      <c r="AD18" s="117"/>
     </row>
     <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="48" t="s">
@@ -3875,7 +3875,7 @@
         <v>45742</v>
       </c>
       <c r="AB19" s="75"/>
-      <c r="AD19" s="125"/>
+      <c r="AD19" s="117"/>
     </row>
     <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="AA20" s="33"/>
       <c r="AB20" s="76"/>
-      <c r="AD20" s="125"/>
+      <c r="AD20" s="117"/>
     </row>
     <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="AA21" s="33"/>
       <c r="AB21" s="76"/>
-      <c r="AD21" s="125"/>
+      <c r="AD21" s="117"/>
     </row>
     <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="48" t="s">
@@ -4087,7 +4087,7 @@
       <c r="AC22" t="s">
         <v>60</v>
       </c>
-      <c r="AD22" s="125"/>
+      <c r="AD22" s="117"/>
     </row>
     <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="AA23" s="33"/>
       <c r="AB23" s="76"/>
-      <c r="AD23" s="125"/>
+      <c r="AD23" s="117"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
@@ -4231,7 +4231,7 @@
       <c r="AB24" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="AD24" s="125"/>
+      <c r="AD24" s="117"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="48" t="s">
@@ -4320,7 +4320,7 @@
         <v>45719</v>
       </c>
       <c r="AB25" s="75"/>
-      <c r="AD25" s="125"/>
+      <c r="AD25" s="117"/>
     </row>
     <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
@@ -4379,7 +4379,7 @@
       <c r="Z26" s="27"/>
       <c r="AA26" s="33"/>
       <c r="AB26" s="76"/>
-      <c r="AD26" s="125"/>
+      <c r="AD26" s="117"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="AA27" s="66"/>
       <c r="AB27"/>
-      <c r="AD27" s="125"/>
+      <c r="AD27" s="117"/>
     </row>
     <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="AA28" s="33"/>
       <c r="AB28" s="76"/>
-      <c r="AD28" s="125"/>
+      <c r="AD28" s="117"/>
     </row>
     <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="AA29" s="34"/>
       <c r="AB29" s="77"/>
-      <c r="AD29" s="125"/>
+      <c r="AD29" s="117"/>
     </row>
     <row r="30" spans="1:32" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
@@ -4688,7 +4688,7 @@
       <c r="AA30" s="34"/>
       <c r="AB30" s="70"/>
       <c r="AC30"/>
-      <c r="AD30" s="126" t="s">
+      <c r="AD30" s="118" t="s">
         <v>484</v>
       </c>
       <c r="AE30"/>
@@ -4754,7 +4754,7 @@
       <c r="AA31" s="47"/>
       <c r="AB31" s="70"/>
       <c r="AC31"/>
-      <c r="AD31" s="125"/>
+      <c r="AD31" s="117"/>
       <c r="AE31"/>
       <c r="AF31"/>
     </row>
@@ -4827,7 +4827,7 @@
         <v>45687</v>
       </c>
       <c r="AB32" s="75"/>
-      <c r="AD32" s="125"/>
+      <c r="AD32" s="117"/>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
     </row>
@@ -4918,7 +4918,7 @@
         <v>45763</v>
       </c>
       <c r="AB33" s="75"/>
-      <c r="AD33" s="125"/>
+      <c r="AD33" s="117"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="48" t="s">
@@ -5008,7 +5008,7 @@
       <c r="AC34" t="s">
         <v>60</v>
       </c>
-      <c r="AD34" s="125"/>
+      <c r="AD34" s="117"/>
     </row>
     <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="48" t="s">
@@ -5071,7 +5071,7 @@
       <c r="AB35" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="AD35" s="125"/>
+      <c r="AD35" s="117"/>
     </row>
     <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="48" t="s">
@@ -5160,7 +5160,7 @@
         <v>45995</v>
       </c>
       <c r="AB36" s="75"/>
-      <c r="AD36" s="125"/>
+      <c r="AD36" s="117"/>
     </row>
     <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="48" t="s">
@@ -5237,7 +5237,7 @@
         <v>45742</v>
       </c>
       <c r="AB37" s="75"/>
-      <c r="AD37" s="125"/>
+      <c r="AD37" s="117"/>
     </row>
     <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="48" t="s">
@@ -5298,7 +5298,7 @@
       <c r="AB38" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="AD38" s="126" t="s">
+      <c r="AD38" s="118" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="AA39" s="33"/>
       <c r="AB39" s="76"/>
-      <c r="AD39" s="125"/>
+      <c r="AD39" s="117"/>
     </row>
     <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="31" t="s">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="AA40" s="34"/>
       <c r="AB40" s="77"/>
-      <c r="AD40" s="125"/>
+      <c r="AD40" s="117"/>
     </row>
     <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="48" t="s">
@@ -5547,7 +5547,7 @@
         <v>45742</v>
       </c>
       <c r="AB41" s="75"/>
-      <c r="AD41" s="125"/>
+      <c r="AD41" s="117"/>
     </row>
     <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="AA42" s="33"/>
       <c r="AB42" s="76"/>
-      <c r="AD42" s="125"/>
+      <c r="AD42" s="117"/>
     </row>
     <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="AA43" s="33"/>
       <c r="AB43" s="76"/>
-      <c r="AD43" s="125"/>
+      <c r="AD43" s="117"/>
     </row>
     <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="AA44" s="39"/>
       <c r="AB44" s="74"/>
-      <c r="AD44" s="125"/>
+      <c r="AD44" s="117"/>
     </row>
     <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="48" t="s">
@@ -5831,7 +5831,7 @@
       <c r="Z45" s="45"/>
       <c r="AA45" s="47"/>
       <c r="AB45" s="75"/>
-      <c r="AD45" s="125"/>
+      <c r="AD45" s="117"/>
     </row>
     <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="60" t="s">
@@ -5900,7 +5900,7 @@
       <c r="Z46" s="58"/>
       <c r="AA46" s="59"/>
       <c r="AB46" s="71"/>
-      <c r="AD46" s="125"/>
+      <c r="AD46" s="117"/>
     </row>
     <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="AA47" s="34"/>
       <c r="AB47" s="77"/>
-      <c r="AD47" s="125"/>
+      <c r="AD47" s="117"/>
     </row>
     <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="48" t="s">
@@ -6036,7 +6036,7 @@
       <c r="Z48" s="41"/>
       <c r="AA48" s="65"/>
       <c r="AB48" s="79"/>
-      <c r="AD48" s="125"/>
+      <c r="AD48" s="117"/>
     </row>
     <row r="49" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="AA49" s="34"/>
       <c r="AB49" s="77"/>
-      <c r="AD49" s="125"/>
+      <c r="AD49" s="117"/>
     </row>
     <row r="50" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="48" t="s">
@@ -6202,7 +6202,7 @@
         <v>45742</v>
       </c>
       <c r="AB50" s="75"/>
-      <c r="AD50" s="125"/>
+      <c r="AD50" s="117"/>
     </row>
     <row r="51" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="AA51" s="33"/>
       <c r="AB51" s="76"/>
-      <c r="AD51" s="125"/>
+      <c r="AD51" s="117"/>
     </row>
     <row r="52" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="60" t="s">
@@ -6338,7 +6338,7 @@
       <c r="Z52" s="9"/>
       <c r="AA52" s="22"/>
       <c r="AB52" s="69"/>
-      <c r="AD52" s="125"/>
+      <c r="AD52" s="117"/>
     </row>
     <row r="53" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="AA53" s="34"/>
       <c r="AB53" s="69"/>
-      <c r="AD53" s="125"/>
+      <c r="AD53" s="117"/>
     </row>
     <row r="54" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="AA54" s="34"/>
       <c r="AB54" s="75"/>
-      <c r="AD54" s="125"/>
+      <c r="AD54" s="117"/>
     </row>
     <row r="55" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="31" t="s">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="AA55" s="33"/>
       <c r="AB55" s="68"/>
-      <c r="AD55" s="125"/>
+      <c r="AD55" s="117"/>
     </row>
     <row r="56" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
@@ -6632,7 +6632,7 @@
       <c r="Z56" s="32"/>
       <c r="AA56" s="33"/>
       <c r="AB56" s="76"/>
-      <c r="AD56" s="125"/>
+      <c r="AD56" s="117"/>
     </row>
     <row r="57" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="48" t="s">
@@ -6719,7 +6719,7 @@
         <v>45742</v>
       </c>
       <c r="AB57" s="75"/>
-      <c r="AD57" s="125"/>
+      <c r="AD57" s="117"/>
     </row>
     <row r="58" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="48" t="s">
@@ -6809,7 +6809,7 @@
       <c r="AC58" t="s">
         <v>60</v>
       </c>
-      <c r="AD58" s="125"/>
+      <c r="AD58" s="117"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="AA59" s="33"/>
       <c r="AB59" s="76"/>
-      <c r="AD59" s="125"/>
+      <c r="AD59" s="117"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" s="48" t="s">
@@ -6941,6 +6941,7 @@
       <c r="Z60" s="41"/>
       <c r="AA60" s="46"/>
       <c r="AB60" s="78"/>
+      <c r="AD60" s="117"/>
     </row>
     <row r="61" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="48" t="s">
@@ -7029,6 +7030,7 @@
         <v>45687</v>
       </c>
       <c r="AB61" s="75"/>
+      <c r="AD61" s="117"/>
     </row>
     <row r="62" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
@@ -7097,6 +7099,7 @@
       </c>
       <c r="AA62" s="33"/>
       <c r="AB62" s="68"/>
+      <c r="AD62" s="117"/>
     </row>
     <row r="63" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="48" t="s">
@@ -7186,6 +7189,7 @@
       <c r="AC63" t="s">
         <v>60</v>
       </c>
+      <c r="AD63" s="117"/>
     </row>
     <row r="64" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="31" t="s">
@@ -7268,6 +7272,9 @@
       </c>
       <c r="AA64" s="33"/>
       <c r="AB64" s="76"/>
+      <c r="AD64" s="118" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="65" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="31" t="s">
@@ -7346,6 +7353,7 @@
       </c>
       <c r="AA65" s="33"/>
       <c r="AB65" s="76"/>
+      <c r="AD65" s="117"/>
     </row>
     <row r="66" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="31" t="s">
@@ -7430,6 +7438,7 @@
       </c>
       <c r="AA66" s="34"/>
       <c r="AB66" s="77"/>
+      <c r="AD66" s="117"/>
     </row>
     <row r="67" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="48" t="s">
@@ -7516,6 +7525,7 @@
         <v>45677</v>
       </c>
       <c r="AB67" s="75"/>
+      <c r="AD67" s="117"/>
     </row>
     <row r="68" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="48" t="s">
@@ -7604,6 +7614,7 @@
         <v>45719</v>
       </c>
       <c r="AB68" s="75"/>
+      <c r="AD68" s="117"/>
     </row>
     <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="48" t="s">
@@ -7695,6 +7706,7 @@
       <c r="AC69" t="s">
         <v>60</v>
       </c>
+      <c r="AD69" s="117"/>
     </row>
     <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="31" t="s">
@@ -7779,6 +7791,7 @@
       </c>
       <c r="AA70" s="33"/>
       <c r="AB70" s="76"/>
+      <c r="AD70" s="117"/>
     </row>
     <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="31" t="s">
@@ -7860,6 +7873,7 @@
       <c r="AC71" t="s">
         <v>280</v>
       </c>
+      <c r="AD71" s="117"/>
     </row>
     <row r="72" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="31" t="s">
@@ -7930,6 +7944,7 @@
       </c>
       <c r="AA72" s="33"/>
       <c r="AB72" s="68"/>
+      <c r="AD72" s="117"/>
     </row>
     <row r="73" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="31" t="s">
@@ -8015,6 +8030,7 @@
       <c r="AC73" t="s">
         <v>60</v>
       </c>
+      <c r="AD73" s="117"/>
     </row>
     <row r="74" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="48" t="s">
@@ -8093,6 +8109,7 @@
         <v>45817</v>
       </c>
       <c r="AB74" s="75"/>
+      <c r="AD74" s="117"/>
     </row>
     <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="31" t="s">
@@ -8161,6 +8178,7 @@
       <c r="AB75" s="68" t="s">
         <v>104</v>
       </c>
+      <c r="AD75" s="117"/>
     </row>
     <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="48" t="s">
@@ -8239,6 +8257,7 @@
         <v>45952</v>
       </c>
       <c r="AB76" s="68"/>
+      <c r="AD76" s="117"/>
       <c r="AE76" s="4"/>
       <c r="AF76" s="4"/>
     </row>
@@ -8327,6 +8346,7 @@
         <v>45840</v>
       </c>
       <c r="AB77" s="76"/>
+      <c r="AD77" s="117"/>
     </row>
     <row r="78" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="48" t="s">
@@ -8399,6 +8419,7 @@
         <v>45952</v>
       </c>
       <c r="AB78" s="72"/>
+      <c r="AD78" s="117"/>
       <c r="AE78" s="4"/>
       <c r="AF78" s="4"/>
     </row>
@@ -8461,6 +8482,7 @@
       <c r="Z79" s="27"/>
       <c r="AA79" s="33"/>
       <c r="AB79" s="76"/>
+      <c r="AD79" s="117"/>
     </row>
     <row r="80" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="48" t="s">
@@ -8549,6 +8571,7 @@
         <v>45699</v>
       </c>
       <c r="AB80" s="75"/>
+      <c r="AD80" s="117"/>
     </row>
     <row r="81" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="31" t="s">
@@ -8609,6 +8632,7 @@
       <c r="Z81" s="32"/>
       <c r="AA81" s="33"/>
       <c r="AB81" s="76"/>
+      <c r="AD81" s="117"/>
     </row>
     <row r="82" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="31" t="s">
@@ -8669,6 +8693,7 @@
       <c r="Z82" s="32"/>
       <c r="AA82" s="33"/>
       <c r="AB82" s="68"/>
+      <c r="AD82" s="117"/>
     </row>
     <row r="83" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="31" t="s">
@@ -8729,6 +8754,7 @@
       <c r="AB83" s="68" t="s">
         <v>104</v>
       </c>
+      <c r="AD83" s="117"/>
     </row>
     <row r="84" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="31" t="s">
@@ -8814,6 +8840,7 @@
       <c r="AC84" t="s">
         <v>60</v>
       </c>
+      <c r="AD84" s="117"/>
     </row>
     <row r="85" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="31" t="s">
@@ -13916,6 +13943,8 @@
     <filterColumn colId="25" showButton="0"/>
   </autoFilter>
   <mergeCells count="18">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
@@ -13932,8 +13961,6 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13942,6 +13969,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100151DCF064A99D441887C557583945FE2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1503b9b205337d75aa5f767cc62a7702">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446" xmlns:ns3="31bae7fc-a932-48d2-a4fd-52f4a9d31701" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21ad5753573771d6f3ee7676f6ebd6fe" ns2:_="" ns3:_="">
     <xsd:import namespace="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446"/>
@@ -14142,15 +14178,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -14163,6 +14190,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4448566-7888-4E1F-84FC-03582353171C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4208C4-AE65-4D97-8DB4-3DB3FCA5CA04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14181,14 +14216,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4448566-7888-4E1F-84FC-03582353171C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40085BB8-DFD3-4E6F-B77A-58E7F0942069}">
   <ds:schemaRefs>
